--- a/每日记录/record - local.xlsx
+++ b/每日记录/record - local.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xtang\workspace\R\stockAnalysis\每日记录\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xtang\workspace\mystockanalysis\每日记录\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="51">
   <si>
     <t>日期</t>
     <phoneticPr fontId="19" type="noConversion"/>
@@ -219,6 +219,14 @@
   </si>
   <si>
     <t>5-a-b-c</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -1348,10 +1356,10 @@
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C33" sqref="C33"/>
+      <selection pane="bottomRight" activeCell="E32" sqref="E32:E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1432,7 +1440,7 @@
         <v>1.7600000000000001E-2</v>
       </c>
       <c r="G2" s="9">
-        <f t="shared" ref="G2:G32" si="0">H2-I2</f>
+        <f t="shared" ref="G2:G33" si="0">H2-I2</f>
         <v>117</v>
       </c>
       <c r="H2" s="9">
@@ -1707,7 +1715,7 @@
         <v>1.7</v>
       </c>
       <c r="E11" s="8">
-        <f t="shared" ref="E11:E32" si="3">(J11-J10)/J10</f>
+        <f t="shared" ref="E11:E33" si="3">(J11-J10)/J10</f>
         <v>-1.2483130904183536E-2</v>
       </c>
       <c r="G11" s="9">
@@ -2164,7 +2172,7 @@
         <v>-2.6875E-2</v>
       </c>
       <c r="F22" s="8">
-        <f t="shared" ref="F22:F32" si="5">M22/N22</f>
+        <f t="shared" ref="F22:F33" si="5">M22/N22</f>
         <v>0.1079429735234216</v>
       </c>
       <c r="G22" s="9">
@@ -2621,10 +2629,10 @@
         <v>42275</v>
       </c>
       <c r="B32" s="13">
-        <v>3</v>
-      </c>
-      <c r="C32" s="6">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="D32" s="7">
         <v>1</v>
@@ -2663,22 +2671,66 @@
         <v>218</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C33" s="6"/>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A33" s="12">
+        <v>42276</v>
+      </c>
+      <c r="B33" s="13">
+        <v>2</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="E33" s="8">
+        <f t="shared" si="3"/>
+        <v>-0.02</v>
+      </c>
+      <c r="F33" s="8">
+        <f t="shared" si="5"/>
+        <v>0.18043478260869567</v>
+      </c>
+      <c r="G33" s="9">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="H33" s="9">
+        <v>3068</v>
+      </c>
+      <c r="I33" s="9">
+        <v>3021</v>
+      </c>
+      <c r="J33" s="9">
+        <v>3038</v>
+      </c>
+      <c r="K33" s="8">
+        <v>-0.13</v>
+      </c>
+      <c r="L33" s="8">
+        <v>-0.1</v>
+      </c>
+      <c r="M33" s="10">
+        <v>166</v>
+      </c>
+      <c r="N33" s="10">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
       <c r="C34" s="6"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
       <c r="C35" s="6"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
       <c r="C36" s="6"/>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
       <c r="C37" s="6"/>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
       <c r="C38" s="6"/>
     </row>
   </sheetData>

--- a/每日记录/record - local.xlsx
+++ b/每日记录/record - local.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="4635" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="4635" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="季线统计" sheetId="9" r:id="rId1"/>
     <sheet name="wu仓位" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="8" r:id="rId3"/>
+    <sheet name="华胜天成" sheetId="8" r:id="rId3"/>
+    <sheet name="方正电机" sheetId="10" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">wu仓位!$A$1:$J$14</definedName>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="54">
   <si>
     <t>日期</t>
     <phoneticPr fontId="19" type="noConversion"/>
@@ -130,26 +131,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>创业板</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>国民技术</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>板块</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>C:A</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>调整:驱动</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>时间</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -227,6 +208,38 @@
   </si>
   <si>
     <t>c</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>60分钟浪</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-5</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>最低</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>空间</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.38空间</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5空间</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -234,10 +247,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0_ "/>
     <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -839,12 +853,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -881,6 +892,12 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1211,136 +1228,136 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9" style="3"/>
-    <col min="6" max="6" width="9" style="5"/>
+    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9" style="2"/>
+    <col min="6" max="6" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>33226</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>95</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>39371</v>
+      </c>
+      <c r="B3" s="2">
+        <v>6124</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>41841</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1664</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="2">
-        <v>39371</v>
-      </c>
-      <c r="B3" s="3">
-        <v>6124</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="2">
-        <v>41841</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1664</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <f>(A4-A3)/(A3-A2)</f>
         <v>0.40195280716029291</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <f>(B3-B4)/(B3-B2)</f>
         <v>0.73975783712058385</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>37</v>
+      <c r="F4" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>42167</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>5178</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="C5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="2">
         <f>(A5-A4)/(A4-A3)</f>
         <v>0.13198380566801621</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <f>(B5-B4)/(B3-B2)</f>
         <v>0.58284956045778735</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>42242</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>2850</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="C6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="2">
         <f>(A6-A5)/(A5-A4)</f>
         <v>0.23006134969325154</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <f>(B5-B6)/(B5-B4)</f>
         <v>0.66249288560045527</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>2</v>
       </c>
     </row>
@@ -1355,7 +1372,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="E16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1364,1374 +1381,1374 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.875" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="8"/>
-    <col min="6" max="6" width="14.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.375" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.375" style="9" customWidth="1"/>
-    <col min="10" max="10" width="18.375" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" style="8"/>
-    <col min="12" max="12" width="9.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="8.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="11"/>
+    <col min="1" max="1" width="13.875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="7"/>
+    <col min="6" max="6" width="14.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.375" style="8" customWidth="1"/>
+    <col min="10" max="10" width="18.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="7"/>
+    <col min="12" max="12" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="12">
+      <c r="A2" s="11">
         <v>42229</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>0.6</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <v>1.7600000000000001E-2</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="8">
         <f t="shared" ref="G2:G33" si="0">H2-I2</f>
         <v>117</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="8">
         <v>3955</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="8">
         <v>3838</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="8">
         <v>3954</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3" s="12">
+      <c r="A3" s="11">
         <v>42230</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>0.2</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <f t="shared" ref="E3:E7" si="1">(J3-J2)/J2</f>
         <v>2.7819929185634801E-3</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="8">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="8">
         <v>4000</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="8">
         <v>3939</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="8">
         <v>3965</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="12">
+      <c r="A4" s="11">
         <v>42233</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>0.2</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <f t="shared" si="1"/>
         <v>7.0617906683480454E-3</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="8">
         <f t="shared" si="0"/>
         <v>87</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="8">
         <v>3994</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="8">
         <v>3907</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="8">
         <v>3993</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A5" s="12">
+      <c r="A5" s="11">
         <v>42234</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>0.2</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <f t="shared" si="1"/>
         <v>-6.1357375406962185E-2</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <f t="shared" si="0"/>
         <v>263</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="8">
         <v>4006</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="8">
         <v>3743</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="8">
         <v>3748</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="12">
+      <c r="A6" s="11">
         <v>42235</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>0.2</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <f t="shared" si="1"/>
         <v>1.2273212379935965E-2</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <f t="shared" si="0"/>
         <v>253</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="8">
         <v>3811</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="8">
         <v>3558</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="8">
         <v>3794</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="12">
+      <c r="A7" s="11">
         <v>42236</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>0.6</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <f t="shared" si="1"/>
         <v>-3.4264628360569323E-2</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="8">
         <f t="shared" si="0"/>
         <v>125</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="8">
         <v>3788</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="8">
         <v>3663</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="8">
         <v>3664</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="12">
+      <c r="A8" s="11">
         <v>42237</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>0.6</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="7">
         <f t="shared" ref="E8" si="2">(J8-J7)/J7</f>
         <v>-4.1512008733624428E-2</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="8">
         <f t="shared" si="0"/>
         <v>145</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="8">
         <v>3652</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="8">
         <v>3507</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="8">
         <v>3511.9</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="12">
+      <c r="A9" s="11">
         <v>42240</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>1.2</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <f>(J9-J8)/J8</f>
         <v>-8.4854352344884532E-2</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="8">
         <f t="shared" si="0"/>
         <v>147</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="8">
         <v>3338</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="8">
         <v>3191</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="8">
         <v>3213.9</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="12">
+      <c r="A10" s="11">
         <v>42241</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>1.6</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="7">
         <f>(J10-J9)/J9</f>
         <v>-7.7755997386353054E-2</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="8">
         <f t="shared" si="0"/>
         <v>176</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="8">
         <v>3123</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="8">
         <v>2947</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="8">
         <v>2964</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="12">
+      <c r="A11" s="11">
         <v>42242</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>1.7</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <f t="shared" ref="E11:E33" si="3">(J11-J10)/J10</f>
         <v>-1.2483130904183536E-2</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="8">
         <f t="shared" si="0"/>
         <v>242</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="8">
         <v>3092</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="8">
         <v>2850</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="8">
         <v>2927</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="12">
+      <c r="A12" s="11">
         <v>42243</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <v>1.4</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <f t="shared" si="3"/>
         <v>5.329689101469081E-2</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="8">
         <f t="shared" si="0"/>
         <v>179</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="8">
         <v>3085</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="8">
         <v>2906</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="8">
         <v>3083</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="12">
+      <c r="A13" s="11">
         <v>42244</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <v>1</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="7">
         <f t="shared" si="3"/>
         <v>4.8329549140447618E-2</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="8">
         <f t="shared" si="0"/>
         <v>133</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="8">
         <v>3235</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="8">
         <v>3102</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="8">
         <v>3232</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="12">
+      <c r="A14" s="11">
         <v>42247</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <v>1.2</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="7">
         <f t="shared" si="3"/>
         <v>-8.3539603960396044E-3</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="7">
         <f t="shared" ref="F14:F20" si="4">M14/N14</f>
         <v>0.25350467289719625</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="8">
         <f t="shared" si="0"/>
         <v>98</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="8">
         <v>3207</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="8">
         <v>3109</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="8">
         <v>3205</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="7">
         <v>-0.09</v>
       </c>
-      <c r="L14" s="8">
+      <c r="L14" s="7">
         <v>-0.08</v>
       </c>
-      <c r="M14" s="10">
+      <c r="M14" s="9">
         <v>217</v>
       </c>
-      <c r="N14" s="10">
+      <c r="N14" s="9">
         <v>856</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="12">
+      <c r="A15" s="11">
         <v>42248</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="6">
         <v>1.4</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="7">
         <f t="shared" si="3"/>
         <v>-1.2168486739469579E-2</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="7">
         <f t="shared" si="4"/>
         <v>0.19286510590858416</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="8">
         <f t="shared" si="0"/>
         <v>127</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="8">
         <v>3180</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="8">
         <v>3053</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="8">
         <v>3166</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="7">
         <v>-0.16</v>
       </c>
-      <c r="L15" s="8">
+      <c r="L15" s="7">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="M15" s="10">
+      <c r="M15" s="9">
         <v>173</v>
       </c>
-      <c r="N15" s="10">
+      <c r="N15" s="9">
         <v>897</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A16" s="12">
+      <c r="A16" s="11">
         <v>42249</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <v>1.3</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="7">
         <f t="shared" si="3"/>
         <v>-1.8951358180669614E-3</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="7">
         <f t="shared" si="4"/>
         <v>0.36224489795918369</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="8">
         <f t="shared" si="0"/>
         <v>175</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="8">
         <v>3194</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="8">
         <v>3019</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="8">
         <v>3160</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16" s="7">
         <v>-0.12</v>
       </c>
-      <c r="L16" s="8">
+      <c r="L16" s="7">
         <v>-0.08</v>
       </c>
-      <c r="M16" s="10">
+      <c r="M16" s="9">
         <v>284</v>
       </c>
-      <c r="N16" s="10">
+      <c r="N16" s="9">
         <v>784</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A17" s="12">
+      <c r="A17" s="11">
         <v>42254</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="6">
         <v>1.4</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="7">
         <f t="shared" si="3"/>
         <v>-2.5316455696202531E-2</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="7">
         <f t="shared" si="4"/>
         <v>2.3416927899686519</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="8">
         <f t="shared" si="0"/>
         <v>151</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="8">
         <v>3217</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="8">
         <v>3066</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="8">
         <v>3080</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K17" s="7">
         <v>-0.12</v>
       </c>
-      <c r="L17" s="8">
+      <c r="L17" s="7">
         <v>-0.11</v>
       </c>
-      <c r="M17" s="10">
+      <c r="M17" s="9">
         <v>747</v>
       </c>
-      <c r="N17" s="10">
+      <c r="N17" s="9">
         <v>319</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A18" s="12">
+      <c r="A18" s="11">
         <v>42255</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="6">
         <v>1.2</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="7">
         <f t="shared" si="3"/>
         <v>2.922077922077922E-2</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="7">
         <f t="shared" si="4"/>
         <v>18.285714285714285</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="8">
         <f t="shared" si="0"/>
         <v>163</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="8">
         <v>3174</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="8">
         <v>3011</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J18" s="8">
         <v>3170</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="7">
         <v>0.06</v>
       </c>
-      <c r="L18" s="8">
+      <c r="L18" s="7">
         <v>0.06</v>
       </c>
-      <c r="M18" s="10">
+      <c r="M18" s="9">
         <v>1024</v>
       </c>
-      <c r="N18" s="10">
+      <c r="N18" s="9">
         <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A19" s="12">
+      <c r="A19" s="11">
         <v>42256</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="6">
         <v>0.8</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="7">
         <f t="shared" si="3"/>
         <v>2.3028391167192429E-2</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="7">
         <f t="shared" si="4"/>
         <v>22.063829787234042</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="8">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="8">
         <v>3265</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="8">
         <v>3165</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J19" s="8">
         <v>3243</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K19" s="7">
         <v>-0.03</v>
       </c>
-      <c r="L19" s="8">
+      <c r="L19" s="7">
         <v>-0.02</v>
       </c>
-      <c r="M19" s="10">
+      <c r="M19" s="9">
         <v>1037</v>
       </c>
-      <c r="N19" s="10">
+      <c r="N19" s="9">
         <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A20" s="12">
+      <c r="A20" s="11">
         <v>42257</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="7">
+      <c r="B20" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="6">
         <v>1</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="7">
         <f t="shared" si="3"/>
         <v>-1.4184397163120567E-2</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="7">
         <f t="shared" si="4"/>
         <v>0.21621621621621623</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="8">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="8">
         <v>3243</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="8">
         <v>3178</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J20" s="8">
         <v>3197</v>
       </c>
-      <c r="K20" s="8">
+      <c r="K20" s="7">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="L20" s="8">
+      <c r="L20" s="7">
         <v>-0.06</v>
       </c>
-      <c r="M20" s="10">
+      <c r="M20" s="9">
         <v>192</v>
       </c>
-      <c r="N20" s="10">
+      <c r="N20" s="9">
         <v>888</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A21" s="12">
+      <c r="A21" s="11">
         <v>42258</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="6" t="s">
+      <c r="B21" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="6">
         <v>0.9</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="7">
         <f t="shared" si="3"/>
         <v>9.383797309978105E-4</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="8">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="8">
         <v>3223</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="8">
         <v>3163</v>
       </c>
-      <c r="J21" s="9">
+      <c r="J21" s="8">
         <v>3200</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A22" s="12">
+      <c r="A22" s="11">
         <v>42261</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="7">
+      <c r="C22" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="6">
         <v>1.2</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="7">
         <f t="shared" si="3"/>
         <v>-2.6875E-2</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="7">
         <f t="shared" ref="F22:F33" si="5">M22/N22</f>
         <v>0.1079429735234216</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="8">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="8">
         <v>3229</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I22" s="8">
         <v>3049</v>
       </c>
-      <c r="J22" s="9">
+      <c r="J22" s="8">
         <v>3114</v>
       </c>
-      <c r="K22" s="8">
+      <c r="K22" s="7">
         <v>-0.1</v>
       </c>
-      <c r="L22" s="8">
+      <c r="L22" s="7">
         <v>-0.09</v>
       </c>
-      <c r="M22" s="10">
+      <c r="M22" s="9">
         <v>106</v>
       </c>
-      <c r="N22" s="10">
+      <c r="N22" s="9">
         <v>982</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A23" s="12">
+      <c r="A23" s="11">
         <v>42262</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="7">
+      <c r="C23" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="6">
         <v>1.5</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="7">
         <f t="shared" si="3"/>
         <v>-3.500321130378934E-2</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="7">
         <f t="shared" si="5"/>
         <v>7.9207920792079209E-2</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="8">
         <f t="shared" si="0"/>
         <v>98</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="8">
         <v>3081</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I23" s="8">
         <v>2983</v>
       </c>
-      <c r="J23" s="9">
+      <c r="J23" s="8">
         <v>3005</v>
       </c>
-      <c r="K23" s="8">
+      <c r="K23" s="7">
         <v>-0.1</v>
       </c>
-      <c r="L23" s="8">
+      <c r="L23" s="7">
         <v>-0.08</v>
       </c>
-      <c r="M23" s="10">
+      <c r="M23" s="9">
         <v>80</v>
       </c>
-      <c r="N23" s="10">
+      <c r="N23" s="9">
         <v>1010</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A24" s="12">
+      <c r="A24" s="11">
         <v>42263</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="5">
         <v>1</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="5">
         <v>1</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="6">
         <v>1.4</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="7">
         <f t="shared" si="3"/>
         <v>4.8918469217970051E-2</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="7">
         <f t="shared" si="5"/>
         <v>31.117647058823529</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="8">
         <f t="shared" si="0"/>
         <v>199</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24" s="8">
         <v>3182</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24" s="8">
         <v>2983</v>
       </c>
-      <c r="J24" s="9">
+      <c r="J24" s="8">
         <v>3152</v>
       </c>
-      <c r="K24" s="8">
+      <c r="K24" s="7">
         <v>0.08</v>
       </c>
-      <c r="L24" s="8">
+      <c r="L24" s="7">
         <v>0.08</v>
       </c>
-      <c r="M24" s="10">
+      <c r="M24" s="9">
         <v>1058</v>
       </c>
-      <c r="N24" s="10">
+      <c r="N24" s="9">
         <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A25" s="12">
+      <c r="A25" s="11">
         <v>42264</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="5">
         <v>1</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <v>1</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="6">
         <v>1</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="7">
         <f t="shared" si="3"/>
         <v>-2.0939086294416244E-2</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="7">
         <f t="shared" si="5"/>
         <v>0.14497354497354498</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="8">
         <f t="shared" si="0"/>
         <v>119</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H25" s="8">
         <v>3204</v>
       </c>
-      <c r="I25" s="9">
+      <c r="I25" s="8">
         <v>3085</v>
       </c>
-      <c r="J25" s="9">
+      <c r="J25" s="8">
         <v>3086</v>
       </c>
-      <c r="K25" s="8">
+      <c r="K25" s="7">
         <v>-0.02</v>
       </c>
-      <c r="L25" s="8">
+      <c r="L25" s="7">
         <v>-0.01</v>
       </c>
-      <c r="M25" s="10">
+      <c r="M25" s="9">
         <v>137</v>
       </c>
-      <c r="N25" s="10">
+      <c r="N25" s="9">
         <v>945</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A26" s="12">
+      <c r="A26" s="11">
         <v>42265</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="5">
         <v>1</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="5">
         <v>2</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="6">
         <v>1</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="7">
         <f t="shared" si="3"/>
         <v>3.5644847699287103E-3</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="7">
         <f t="shared" si="5"/>
         <v>3.6536796536796539</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="8">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H26" s="8">
         <v>3122</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I26" s="8">
         <v>3070</v>
       </c>
-      <c r="J26" s="9">
+      <c r="J26" s="8">
         <v>3097</v>
       </c>
-      <c r="K26" s="8">
+      <c r="K26" s="7">
         <v>-0.04</v>
       </c>
-      <c r="L26" s="8">
+      <c r="L26" s="7">
         <v>-0.03</v>
       </c>
-      <c r="M26" s="10">
+      <c r="M26" s="9">
         <v>844</v>
       </c>
-      <c r="N26" s="10">
+      <c r="N26" s="9">
         <v>231</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A27" s="12">
+      <c r="A27" s="11">
         <v>42268</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="5">
         <v>1</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="5">
         <v>3</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="6">
         <v>1.2</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="7">
         <f t="shared" si="3"/>
         <v>1.9050694220213108E-2</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="7">
         <f t="shared" si="5"/>
         <v>15.953125</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="8">
         <f t="shared" si="0"/>
         <v>99</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H27" s="8">
         <v>3159</v>
       </c>
-      <c r="I27" s="9">
+      <c r="I27" s="8">
         <v>3060</v>
       </c>
-      <c r="J27" s="9">
+      <c r="J27" s="8">
         <v>3156</v>
       </c>
-      <c r="K27" s="8">
+      <c r="K27" s="7">
         <v>0.08</v>
       </c>
-      <c r="L27" s="8">
+      <c r="L27" s="7">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M27" s="10">
+      <c r="M27" s="9">
         <v>1021</v>
       </c>
-      <c r="N27" s="10">
+      <c r="N27" s="9">
         <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A28" s="12">
+      <c r="A28" s="11">
         <v>42269</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="5">
         <v>1</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="5">
         <v>3</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="6">
         <v>0.9</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28" s="7">
         <f t="shared" si="3"/>
         <v>9.1888466413181241E-3</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="7">
         <f t="shared" si="5"/>
         <v>2.3605015673981193</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G28" s="8">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="H28" s="9">
+      <c r="H28" s="8">
         <v>3213</v>
       </c>
-      <c r="I28" s="9">
+      <c r="I28" s="8">
         <v>3152</v>
       </c>
-      <c r="J28" s="9">
+      <c r="J28" s="8">
         <v>3185</v>
       </c>
-      <c r="K28" s="8">
+      <c r="K28" s="7">
         <v>-0.01</v>
       </c>
-      <c r="L28" s="8">
+      <c r="L28" s="7">
         <v>0</v>
       </c>
-      <c r="M28" s="10">
+      <c r="M28" s="9">
         <v>753</v>
       </c>
-      <c r="N28" s="10">
+      <c r="N28" s="9">
         <v>319</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A29" s="12">
+      <c r="A29" s="11">
         <v>42270</v>
       </c>
-      <c r="B29" s="13">
+      <c r="B29" s="12">
         <v>1</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="5">
         <v>4</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="6">
         <v>0.8</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="7">
         <f t="shared" si="3"/>
         <v>-2.197802197802198E-2</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="7">
         <f t="shared" si="5"/>
         <v>0.24654377880184331</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G29" s="8">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="H29" s="9">
+      <c r="H29" s="8">
         <v>3164</v>
       </c>
-      <c r="I29" s="9">
+      <c r="I29" s="8">
         <v>3104</v>
       </c>
-      <c r="J29" s="9">
+      <c r="J29" s="8">
         <v>3115</v>
       </c>
-      <c r="K29" s="8">
+      <c r="K29" s="7">
         <v>-0.1</v>
       </c>
-      <c r="L29" s="8">
+      <c r="L29" s="7">
         <v>-0.09</v>
       </c>
-      <c r="M29" s="10">
+      <c r="M29" s="9">
         <v>214</v>
       </c>
-      <c r="N29" s="10">
+      <c r="N29" s="9">
         <v>868</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A30" s="12">
+      <c r="A30" s="11">
         <v>42271</v>
       </c>
-      <c r="B30" s="13">
+      <c r="B30" s="12">
         <v>1</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30" s="7">
+      <c r="C30" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="6">
         <v>0.7</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30" s="7">
         <f t="shared" si="3"/>
         <v>8.6677367576243978E-3</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F30" s="7">
         <f t="shared" si="5"/>
         <v>6.0457516339869279</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="8">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="H30" s="9">
+      <c r="H30" s="8">
         <v>3151</v>
       </c>
-      <c r="I30" s="9">
+      <c r="I30" s="8">
         <v>3109</v>
       </c>
-      <c r="J30" s="9">
+      <c r="J30" s="8">
         <v>3142</v>
       </c>
-      <c r="K30" s="8">
+      <c r="K30" s="7">
         <v>-0.05</v>
       </c>
-      <c r="L30" s="8">
+      <c r="L30" s="7">
         <v>-0.04</v>
       </c>
-      <c r="M30" s="10">
+      <c r="M30" s="9">
         <v>925</v>
       </c>
-      <c r="N30" s="10">
+      <c r="N30" s="9">
         <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A31" s="12">
+      <c r="A31" s="11">
         <v>42272</v>
       </c>
-      <c r="B31" s="13">
+      <c r="B31" s="12">
         <v>2</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D31" s="7">
+      <c r="C31" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="6">
         <v>0.9</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="7">
         <f t="shared" si="3"/>
         <v>-1.5913430935709738E-2</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F31" s="7">
         <f t="shared" si="5"/>
         <v>0.1397288842544317</v>
       </c>
-      <c r="G31" s="9">
+      <c r="G31" s="8">
         <f t="shared" si="0"/>
         <v>86</v>
       </c>
-      <c r="H31" s="9">
+      <c r="H31" s="8">
         <v>3149</v>
       </c>
-      <c r="I31" s="9">
+      <c r="I31" s="8">
         <v>3063</v>
       </c>
-      <c r="J31" s="9">
+      <c r="J31" s="8">
         <v>3092</v>
       </c>
-      <c r="K31" s="8">
+      <c r="K31" s="7">
         <v>-0.12</v>
       </c>
-      <c r="L31" s="8">
+      <c r="L31" s="7">
         <v>-0.1</v>
       </c>
-      <c r="M31" s="10">
+      <c r="M31" s="9">
         <v>134</v>
       </c>
-      <c r="N31" s="10">
+      <c r="N31" s="9">
         <v>959</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A32" s="12">
+      <c r="A32" s="11">
         <v>42275</v>
       </c>
-      <c r="B32" s="13">
+      <c r="B32" s="12">
         <v>2</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="7">
+      <c r="C32" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="6">
         <v>1</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32" s="7">
         <f t="shared" si="3"/>
         <v>2.5873221216041399E-3</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F32" s="7">
         <f t="shared" si="5"/>
         <v>3.9495412844036699</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G32" s="8">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="H32" s="9">
+      <c r="H32" s="8">
         <v>3103</v>
       </c>
-      <c r="I32" s="9">
+      <c r="I32" s="8">
         <v>3042</v>
       </c>
-      <c r="J32" s="9">
+      <c r="J32" s="8">
         <v>3100</v>
       </c>
-      <c r="K32" s="8">
+      <c r="K32" s="7">
         <v>0.01</v>
       </c>
-      <c r="L32" s="8">
+      <c r="L32" s="7">
         <v>0</v>
       </c>
-      <c r="M32" s="10">
+      <c r="M32" s="9">
         <v>861</v>
       </c>
-      <c r="N32" s="10">
+      <c r="N32" s="9">
         <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A33" s="12">
+      <c r="A33" s="11">
         <v>42276</v>
       </c>
-      <c r="B33" s="13">
+      <c r="B33" s="12">
         <v>2</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D33" s="7">
+      <c r="C33" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="6">
         <v>0.7</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E33" s="7">
         <f t="shared" si="3"/>
         <v>-0.02</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F33" s="7">
         <f t="shared" si="5"/>
         <v>0.18043478260869567</v>
       </c>
-      <c r="G33" s="9">
+      <c r="G33" s="8">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="H33" s="9">
+      <c r="H33" s="8">
         <v>3068</v>
       </c>
-      <c r="I33" s="9">
+      <c r="I33" s="8">
         <v>3021</v>
       </c>
-      <c r="J33" s="9">
+      <c r="J33" s="8">
         <v>3038</v>
       </c>
-      <c r="K33" s="8">
+      <c r="K33" s="7">
         <v>-0.13</v>
       </c>
-      <c r="L33" s="8">
+      <c r="L33" s="7">
         <v>-0.1</v>
       </c>
-      <c r="M33" s="10">
+      <c r="M33" s="9">
         <v>166</v>
       </c>
-      <c r="N33" s="10">
+      <c r="N33" s="9">
         <v>920</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="C34" s="6"/>
+      <c r="C34" s="5"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="C35" s="6"/>
+      <c r="C35" s="5"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="C36" s="6"/>
+      <c r="C36" s="5"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="C37" s="6"/>
+      <c r="C37" s="5"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="C38" s="6"/>
+      <c r="C38" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J14"/>
@@ -2743,54 +2760,75 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="10.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="3"/>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="2"/>
+    <col min="4" max="8" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="3">
-        <f>(4037-1779)/(4037-585)</f>
-        <v>0.65411355735805332</v>
-      </c>
-      <c r="C2" s="3">
-        <f>(3014-1779)/(4037-2304)</f>
-        <v>0.71263704558568952</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="3">
-        <f>(78.04-21.89)/(78.04-11.79)</f>
-        <v>0.84754716981132083</v>
-      </c>
-      <c r="C3" s="3">
-        <f>(44.59-21.89)/(78.05-26.74)</f>
-        <v>0.44240888715649973</v>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="13">
+        <v>0.38</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="2">
+        <v>13.95</v>
+      </c>
+      <c r="C2" s="2">
+        <v>23.2</v>
+      </c>
+      <c r="D2" s="13">
+        <f>C2-B2</f>
+        <v>9.25</v>
+      </c>
+      <c r="E2" s="13">
+        <f>D2*0.38</f>
+        <v>3.5150000000000001</v>
+      </c>
+      <c r="F2" s="13">
+        <f>C2-E2</f>
+        <v>19.684999999999999</v>
+      </c>
+      <c r="G2" s="13">
+        <f>D2*0.5</f>
+        <v>4.625</v>
+      </c>
+      <c r="H2" s="13">
+        <f>C2-G2</f>
+        <v>18.574999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2798,4 +2836,77 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="13">
+        <v>0.38</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="2">
+        <v>15.94</v>
+      </c>
+      <c r="C2" s="2">
+        <v>27.59</v>
+      </c>
+      <c r="D2" s="13">
+        <f>C2-B2</f>
+        <v>11.65</v>
+      </c>
+      <c r="E2" s="13">
+        <f>D2*0.38</f>
+        <v>4.4270000000000005</v>
+      </c>
+      <c r="F2" s="13">
+        <f>C2-E2</f>
+        <v>23.163</v>
+      </c>
+      <c r="G2" s="13">
+        <f>D2*0.5</f>
+        <v>5.8250000000000002</v>
+      </c>
+      <c r="H2" s="13">
+        <f>C2-G2</f>
+        <v>21.765000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/每日记录/record - local.xlsx
+++ b/每日记录/record - local.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="4635" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="4635" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="季线统计" sheetId="9" r:id="rId1"/>
     <sheet name="wu仓位" sheetId="4" r:id="rId2"/>
     <sheet name="华胜天成" sheetId="8" r:id="rId3"/>
     <sheet name="方正电机" sheetId="10" r:id="rId4"/>
+    <sheet name="创业板" sheetId="11" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">wu仓位!$A$1:$J$14</definedName>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="56">
   <si>
     <t>日期</t>
     <phoneticPr fontId="19" type="noConversion"/>
@@ -240,6 +241,14 @@
   </si>
   <si>
     <t>1</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>比例</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>比例</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -853,7 +862,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -897,6 +906,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2760,10 +2775,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2771,10 +2786,13 @@
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="10.5" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="2"/>
-    <col min="4" max="8" width="9" style="14"/>
+    <col min="4" max="4" width="9" style="14"/>
+    <col min="7" max="7" width="9" style="16"/>
+    <col min="10" max="10" width="9" style="16"/>
+    <col min="13" max="13" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>46</v>
       </c>
@@ -2793,14 +2811,29 @@
       <c r="F1" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="13">
+      <c r="G1" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="13">
         <v>0.5</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J1" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" s="13">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>47</v>
       </c>
@@ -2808,27 +2841,47 @@
         <v>13.95</v>
       </c>
       <c r="C2" s="2">
-        <v>23.2</v>
+        <v>23.5</v>
       </c>
       <c r="D2" s="13">
         <f>C2-B2</f>
-        <v>9.25</v>
+        <v>9.5500000000000007</v>
       </c>
       <c r="E2" s="13">
         <f>D2*0.38</f>
-        <v>3.5150000000000001</v>
+        <v>3.6290000000000004</v>
       </c>
       <c r="F2" s="13">
         <f>C2-E2</f>
-        <v>19.684999999999999</v>
-      </c>
-      <c r="G2" s="13">
+        <v>19.870999999999999</v>
+      </c>
+      <c r="G2" s="15">
+        <f>1-F2/C2</f>
+        <v>0.15442553191489372</v>
+      </c>
+      <c r="H2" s="13">
         <f>D2*0.5</f>
-        <v>4.625</v>
-      </c>
-      <c r="H2" s="13">
-        <f>C2-G2</f>
-        <v>18.574999999999999</v>
+        <v>4.7750000000000004</v>
+      </c>
+      <c r="I2" s="13">
+        <f>C2-H2</f>
+        <v>18.725000000000001</v>
+      </c>
+      <c r="J2" s="15">
+        <f>1-I2/C2</f>
+        <v>0.20319148936170206</v>
+      </c>
+      <c r="K2" s="13">
+        <f>C2*0.612</f>
+        <v>14.382</v>
+      </c>
+      <c r="L2" s="13">
+        <f>C2-K2</f>
+        <v>9.1180000000000003</v>
+      </c>
+      <c r="M2" s="15">
+        <f>1-K2/C2</f>
+        <v>0.38800000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2840,15 +2893,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E1" sqref="E1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="7" max="7" width="9" style="16"/>
+    <col min="10" max="10" width="9" style="16"/>
+    <col min="13" max="13" width="9" style="16"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>46</v>
       </c>
@@ -2867,14 +2925,29 @@
       <c r="F1" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="13">
+      <c r="G1" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="13">
         <v>0.5</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J1" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" s="13">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>53</v>
       </c>
@@ -2882,31 +2955,167 @@
         <v>15.94</v>
       </c>
       <c r="C2" s="2">
-        <v>27.59</v>
+        <v>28.28</v>
       </c>
       <c r="D2" s="13">
         <f>C2-B2</f>
-        <v>11.65</v>
+        <v>12.340000000000002</v>
       </c>
       <c r="E2" s="13">
         <f>D2*0.38</f>
-        <v>4.4270000000000005</v>
+        <v>4.6892000000000005</v>
       </c>
       <c r="F2" s="13">
         <f>C2-E2</f>
-        <v>23.163</v>
-      </c>
-      <c r="G2" s="13">
+        <v>23.590800000000002</v>
+      </c>
+      <c r="G2" s="15">
+        <f>1-F2/C2</f>
+        <v>0.1658132956152758</v>
+      </c>
+      <c r="H2" s="13">
         <f>D2*0.5</f>
-        <v>5.8250000000000002</v>
-      </c>
-      <c r="H2" s="13">
-        <f>C2-G2</f>
-        <v>21.765000000000001</v>
+        <v>6.1700000000000008</v>
+      </c>
+      <c r="I2" s="13">
+        <f>C2-H2</f>
+        <v>22.11</v>
+      </c>
+      <c r="J2" s="15">
+        <f>1-I2/C2</f>
+        <v>0.21817538896746824</v>
+      </c>
+      <c r="K2" s="13">
+        <f>C2*0.612</f>
+        <v>17.307359999999999</v>
+      </c>
+      <c r="L2" s="13">
+        <f>C2-K2</f>
+        <v>10.972640000000002</v>
+      </c>
+      <c r="M2" s="15">
+        <f>1-K2/C2</f>
+        <v>0.38800000000000001</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:M1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="16"/>
+    <col min="10" max="10" width="9" style="16"/>
+    <col min="13" max="13" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="13">
+        <v>0.38</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" s="13">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1770</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2527</v>
+      </c>
+      <c r="D2" s="13">
+        <f>C2-B2</f>
+        <v>757</v>
+      </c>
+      <c r="E2" s="13">
+        <f>D2*0.38</f>
+        <v>287.66000000000003</v>
+      </c>
+      <c r="F2" s="13">
+        <f>C2-E2</f>
+        <v>2239.34</v>
+      </c>
+      <c r="G2" s="15">
+        <f>1-F2/C2</f>
+        <v>0.1138345864661654</v>
+      </c>
+      <c r="H2" s="13">
+        <f>D2*0.5</f>
+        <v>378.5</v>
+      </c>
+      <c r="I2" s="13">
+        <f>C2-H2</f>
+        <v>2148.5</v>
+      </c>
+      <c r="J2" s="15">
+        <f>1-I2/C2</f>
+        <v>0.14978235061337553</v>
+      </c>
+      <c r="K2" s="13">
+        <f>C2*0.612</f>
+        <v>1546.5239999999999</v>
+      </c>
+      <c r="L2" s="13">
+        <f>C2-K2</f>
+        <v>980.47600000000011</v>
+      </c>
+      <c r="M2" s="15">
+        <f>1-K2/C2</f>
+        <v>0.38800000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>